--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H2">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I2">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J2">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>84.05613989735734</v>
+        <v>176.100173949919</v>
       </c>
       <c r="R2">
-        <v>756.505259076216</v>
+        <v>1584.901565549271</v>
       </c>
       <c r="S2">
-        <v>0.0004585260266251224</v>
+        <v>0.001412522904083422</v>
       </c>
       <c r="T2">
-        <v>0.0005050982924541491</v>
+        <v>0.001500838375139035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H3">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I3">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J3">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>89.95217690321002</v>
+        <v>213.6308425422633</v>
       </c>
       <c r="R3">
-        <v>809.56959212889</v>
+        <v>1922.67758288037</v>
       </c>
       <c r="S3">
-        <v>0.0004906888933048152</v>
+        <v>0.001713561385779226</v>
       </c>
       <c r="T3">
-        <v>0.0005405279258817518</v>
+        <v>0.001820698750086959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H4">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I4">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J4">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>45.16792668724133</v>
+        <v>120.6051973135116</v>
       </c>
       <c r="R4">
-        <v>406.511340185172</v>
+        <v>1085.446775821604</v>
       </c>
       <c r="S4">
-        <v>0.0002463909237336596</v>
+        <v>0.000967390319587551</v>
       </c>
       <c r="T4">
-        <v>0.0002714167301910214</v>
+        <v>0.00102787467104269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H5">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I5">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J5">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>102.9308941490835</v>
+        <v>131.5290572110459</v>
       </c>
       <c r="R5">
-        <v>617.585364894501</v>
+        <v>789.1743432662751</v>
       </c>
       <c r="S5">
-        <v>0.0005614877624499877</v>
+        <v>0.001055012051924134</v>
       </c>
       <c r="T5">
-        <v>0.0004123452011871047</v>
+        <v>0.0007473165304361931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.608137</v>
+        <v>1.444287666666667</v>
       </c>
       <c r="H6">
-        <v>1.824411</v>
+        <v>4.332863</v>
       </c>
       <c r="I6">
-        <v>0.002038596856568863</v>
+        <v>0.006189216566550864</v>
       </c>
       <c r="J6">
-        <v>0.002039483548598552</v>
+        <v>0.006202528009901729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>51.60465323198568</v>
+        <v>129.74849243623</v>
       </c>
       <c r="R6">
-        <v>464.4418790878711</v>
+        <v>1167.73643192607</v>
       </c>
       <c r="S6">
-        <v>0.000281503250455278</v>
+        <v>0.001040729905176529</v>
       </c>
       <c r="T6">
-        <v>0.0003100953988845248</v>
+        <v>0.001105799683196851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.115531</v>
       </c>
       <c r="I7">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J7">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>97.46891993810399</v>
+        <v>85.98134238180299</v>
       </c>
       <c r="R7">
-        <v>877.220279442936</v>
+        <v>773.8320814362269</v>
       </c>
       <c r="S7">
-        <v>0.0005316927071982528</v>
+        <v>0.0006896677766637222</v>
       </c>
       <c r="T7">
-        <v>0.0005856964772377596</v>
+        <v>0.0007327880222837091</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.115531</v>
       </c>
       <c r="I8">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J8">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>104.30578348641</v>
       </c>
       <c r="R8">
-        <v>938.75205137769</v>
+        <v>938.7520513776899</v>
       </c>
       <c r="S8">
-        <v>0.0005689877802436122</v>
+        <v>0.0008366505546145614</v>
       </c>
       <c r="T8">
-        <v>0.0006267795927389979</v>
+        <v>0.0008889606358359854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.115531</v>
       </c>
       <c r="I9">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J9">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>52.37534147326799</v>
+        <v>58.885783759572</v>
       </c>
       <c r="R9">
-        <v>471.378073259412</v>
+        <v>529.9720538361479</v>
       </c>
       <c r="S9">
-        <v>0.0002857073528263053</v>
+        <v>0.0004723306991675877</v>
       </c>
       <c r="T9">
-        <v>0.000314726509891544</v>
+        <v>0.0005018623322975162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.115531</v>
       </c>
       <c r="I10">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J10">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>119.3555056564035</v>
+        <v>64.21938518036251</v>
       </c>
       <c r="R10">
-        <v>716.133033938421</v>
+        <v>385.316311082175</v>
       </c>
       <c r="S10">
-        <v>0.0006510839759152872</v>
+        <v>0.0005151122251543877</v>
       </c>
       <c r="T10">
-        <v>0.0004781428394219047</v>
+        <v>0.0003648791311772862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.115531</v>
       </c>
       <c r="I11">
-        <v>0.002363894345393654</v>
+        <v>0.003021900187532335</v>
       </c>
       <c r="J11">
-        <v>0.002364922526256552</v>
+        <v>0.003028399532437424</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>59.83917201579901</v>
+        <v>63.35002005650999</v>
       </c>
       <c r="R11">
-        <v>538.5525481421911</v>
+        <v>570.15018050859</v>
       </c>
       <c r="S11">
-        <v>0.000326422529210197</v>
+        <v>0.0005081389319320753</v>
       </c>
       <c r="T11">
-        <v>0.0003595771069663456</v>
+        <v>0.0005399094108429273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H12">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I12">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J12">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>15602.2871936268</v>
+        <v>15028.22003779837</v>
       </c>
       <c r="R12">
-        <v>140420.5847426412</v>
+        <v>135253.9803401854</v>
       </c>
       <c r="S12">
-        <v>0.08511043645227689</v>
+        <v>0.1205433506103893</v>
       </c>
       <c r="T12">
-        <v>0.09375506214660111</v>
+        <v>0.1280801082523382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H13">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I13">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J13">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>16696.69460731362</v>
+        <v>18231.05131911125</v>
       </c>
       <c r="R13">
-        <v>150270.2514658226</v>
+        <v>164079.4618720012</v>
       </c>
       <c r="S13">
-        <v>0.09108042607492281</v>
+        <v>0.1462336860671611</v>
       </c>
       <c r="T13">
-        <v>0.1003314207157359</v>
+        <v>0.1553766860368504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H14">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I14">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J14">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>8383.95582970585</v>
+        <v>10292.33192833183</v>
       </c>
       <c r="R14">
-        <v>75455.60246735266</v>
+        <v>92630.9873549865</v>
       </c>
       <c r="S14">
-        <v>0.04573445745533713</v>
+        <v>0.08255616254718923</v>
       </c>
       <c r="T14">
-        <v>0.05037968408692736</v>
+        <v>0.08771783912094352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H15">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I15">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J15">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>19105.7711378594</v>
+        <v>11224.56366053281</v>
       </c>
       <c r="R15">
-        <v>114634.6268271564</v>
+        <v>67347.38196319688</v>
       </c>
       <c r="S15">
-        <v>0.1042219323436602</v>
+        <v>0.09003371719186397</v>
       </c>
       <c r="T15">
-        <v>0.07653846892911263</v>
+        <v>0.06377527634057355</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.8808453333333</v>
+        <v>123.254125</v>
       </c>
       <c r="H16">
-        <v>338.642536</v>
+        <v>369.762375</v>
       </c>
       <c r="I16">
-        <v>0.3783991706858311</v>
+        <v>0.528181808895687</v>
       </c>
       <c r="J16">
-        <v>0.3785637562082736</v>
+        <v>0.5293177947110922</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>9578.724662304832</v>
+        <v>11072.61196947375</v>
       </c>
       <c r="R16">
-        <v>86208.5219607435</v>
+        <v>99653.50772526376</v>
       </c>
       <c r="S16">
-        <v>0.05225191835963415</v>
+        <v>0.08881489247908329</v>
       </c>
       <c r="T16">
-        <v>0.05755912032989664</v>
+        <v>0.09436788496038657</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H17">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I17">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J17">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>53.77890370737734</v>
+        <v>183.190004979465</v>
       </c>
       <c r="R17">
-        <v>322.673422244264</v>
+        <v>1099.14002987679</v>
       </c>
       <c r="S17">
-        <v>0.0002933637811980235</v>
+        <v>0.001469391381216006</v>
       </c>
       <c r="T17">
-        <v>0.0002154403986496205</v>
+        <v>0.001040841634804524</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H18">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I18">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J18">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>57.551173130885</v>
+        <v>222.23166639355</v>
       </c>
       <c r="R18">
-        <v>345.30703878531</v>
+        <v>1333.3899983613</v>
       </c>
       <c r="S18">
-        <v>0.0003139415011865046</v>
+        <v>0.001782549737189852</v>
       </c>
       <c r="T18">
-        <v>0.0002305522579920187</v>
+        <v>0.001262666983279601</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H19">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I19">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J19">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>28.89832417883133</v>
+        <v>125.4607886003267</v>
       </c>
       <c r="R19">
-        <v>173.389945072988</v>
+        <v>752.76473160196</v>
       </c>
       <c r="S19">
-        <v>0.0001576402839581362</v>
+        <v>0.001006337662748295</v>
       </c>
       <c r="T19">
-        <v>0.0001157678206917284</v>
+        <v>0.0007128380848358344</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H20">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I20">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J20">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>65.85492328956975</v>
+        <v>136.8244454561875</v>
       </c>
       <c r="R20">
-        <v>263.419693158279</v>
+        <v>547.29778182475</v>
       </c>
       <c r="S20">
-        <v>0.0003592384369130184</v>
+        <v>0.001097487064949414</v>
       </c>
       <c r="T20">
-        <v>0.0001758782713229464</v>
+        <v>0.0005182691035492706</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.3890845</v>
+        <v>1.502435</v>
       </c>
       <c r="H21">
-        <v>0.778169</v>
+        <v>3.00487</v>
       </c>
       <c r="I21">
-        <v>0.001304289064207025</v>
+        <v>0.006438395761993292</v>
       </c>
       <c r="J21">
-        <v>0.0008699042450025715</v>
+        <v>0.00430149541795192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>33.01652538891818</v>
+        <v>134.97219475905</v>
       </c>
       <c r="R21">
-        <v>198.099152333509</v>
+        <v>809.8331685543</v>
       </c>
       <c r="S21">
-        <v>0.0001801050609513426</v>
+        <v>0.001082629915889724</v>
       </c>
       <c r="T21">
-        <v>0.0001322654963462574</v>
+        <v>0.0007668796114826903</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H22">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I22">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J22">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>25394.75923447729</v>
+        <v>12979.24911596046</v>
       </c>
       <c r="R22">
-        <v>228552.8331102956</v>
+        <v>116813.2420436441</v>
       </c>
       <c r="S22">
-        <v>0.1385283462112991</v>
+        <v>0.1041082824785426</v>
       </c>
       <c r="T22">
-        <v>0.1525986030560271</v>
+        <v>0.1106174668473791</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H23">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I23">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J23">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>27176.05017151096</v>
+        <v>15745.401392943</v>
       </c>
       <c r="R23">
-        <v>244584.4515435986</v>
+        <v>141708.612536487</v>
       </c>
       <c r="S23">
-        <v>0.1482452836845017</v>
+        <v>0.1262959575942499</v>
       </c>
       <c r="T23">
-        <v>0.1633024851490953</v>
+        <v>0.1341923867106285</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H24">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I24">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J24">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>13645.98261047527</v>
+        <v>8889.059366044719</v>
       </c>
       <c r="R24">
-        <v>122813.8434942775</v>
+        <v>80001.53429440247</v>
       </c>
       <c r="S24">
-        <v>0.07443879999030814</v>
+        <v>0.07130032678937739</v>
       </c>
       <c r="T24">
-        <v>0.08199951275215255</v>
+        <v>0.07575825234132381</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H25">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I25">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J25">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>31097.1367219258</v>
+        <v>9694.18917220987</v>
       </c>
       <c r="R25">
-        <v>186582.8203315548</v>
+        <v>58165.13503325923</v>
       </c>
       <c r="S25">
-        <v>0.1696348007169326</v>
+        <v>0.07775837998977883</v>
       </c>
       <c r="T25">
-        <v>0.1245763500254172</v>
+        <v>0.05508005585369304</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>183.728312</v>
+        <v>106.4494656666667</v>
       </c>
       <c r="H26">
-        <v>551.184936</v>
+        <v>319.348397</v>
       </c>
       <c r="I26">
-        <v>0.6158940490479995</v>
+        <v>0.4561686785882365</v>
       </c>
       <c r="J26">
-        <v>0.6161619334718688</v>
+        <v>0.4571497823286167</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>15590.62485863888</v>
+        <v>9562.954811328369</v>
       </c>
       <c r="R26">
-        <v>140315.6237277499</v>
+        <v>86066.59330195532</v>
       </c>
       <c r="S26">
-        <v>0.08504681844495808</v>
+        <v>0.07670573173628767</v>
       </c>
       <c r="T26">
-        <v>0.09368498248917666</v>
+        <v>0.08150162057559225</v>
       </c>
     </row>
   </sheetData>
